--- a/grupos/3ARHM - Estadisticos 20211.xlsx
+++ b/grupos/3ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -191,16 +191,16 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
+    <t>Martínez López Miguel Ángel</t>
+  </si>
+  <si>
     <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Martínez López Miguel Ángel</t>
   </si>
   <si>
     <t>Mendoza Velazquez Laura Elena</t>
@@ -995,13 +995,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1049,13 +1049,13 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W4">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1149,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -1203,7 +1203,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U6">
         <v>-1</v>
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1318,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1380,13 +1380,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1434,13 +1434,13 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>9</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>9</v>
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1526,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1549,7 +1549,7 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W12">
         <v>10</v>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1748,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W13">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1848,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1902,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1979,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W16">
         <v>10</v>
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2011,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2065,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2073,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -2127,7 +2127,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>6</v>
@@ -2156,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -2165,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W19">
         <v>10</v>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2227,13 +2227,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -2242,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2281,13 +2281,13 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W20">
         <v>9</v>
@@ -2296,7 +2296,7 @@
         <v>8</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2319,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2381,7 +2381,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2435,7 +2435,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U22">
         <v>-1</v>
@@ -2458,7 +2458,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -2512,7 +2512,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>7</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2766,7 +2766,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -2820,7 +2820,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U27">
         <v>8</v>
@@ -2849,7 +2849,7 @@
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -2858,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2903,7 +2903,7 @@
         <v>-1</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W28">
         <v>8</v>
@@ -2912,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2920,13 +2920,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -2935,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2974,13 +2974,13 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U29">
         <v>7</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3003,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3012,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W30">
         <v>8</v>
@@ -3066,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3080,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -3089,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3134,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W31">
         <v>9</v>
@@ -3143,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3166,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3220,7 +3220,7 @@
         <v>10</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3311,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3365,7 +3365,7 @@
         <v>8</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W34">
         <v>8</v>
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3397,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3451,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3542,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3596,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W37">
         <v>9</v>
@@ -3605,7 +3605,7 @@
         <v>10</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3628,7 +3628,7 @@
         <v>7</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -3682,7 +3682,7 @@
         <v>7</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3750,27 +3750,30 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.1</v>
+      </c>
       <c r="I2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3779,27 +3782,30 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.9</v>
+      </c>
       <c r="I3">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3808,30 +3814,30 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3840,30 +3846,30 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>68.56999999999999</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>31.43</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3872,25 +3878,25 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>71.43000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>28.57</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3999,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4019,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4039,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4059,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4119,7 +4125,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4139,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4159,7 +4165,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4179,7 +4185,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4239,7 +4245,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4259,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4279,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4299,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4359,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4379,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4399,7 +4405,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4419,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4479,7 +4485,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4499,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4519,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4539,7 +4545,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4599,7 +4605,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4619,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4639,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4659,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4719,7 +4725,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4739,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4759,7 +4765,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4779,7 +4785,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4839,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4859,7 +4865,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4879,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4899,7 +4905,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4959,7 +4965,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4979,7 +4985,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4999,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5019,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5079,7 +5085,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5099,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5119,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5139,7 +5145,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5199,7 +5205,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5219,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5239,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5259,7 +5265,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5319,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5339,7 +5345,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5359,7 +5365,7 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5379,7 +5385,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5439,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5459,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5479,7 +5485,7 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5499,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5559,7 +5565,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5579,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5599,7 +5605,7 @@
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5619,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5679,7 +5685,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5699,7 +5705,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5719,7 +5725,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5739,7 +5745,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5799,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5819,7 +5825,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5839,7 +5845,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5859,7 +5865,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5919,7 +5925,7 @@
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5939,7 +5945,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5959,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5979,7 +5985,7 @@
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6039,7 +6045,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6059,7 +6065,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6079,7 +6085,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6099,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6159,7 +6165,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6179,7 +6185,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6199,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6219,7 +6225,7 @@
         <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6279,7 +6285,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6299,7 +6305,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6319,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6339,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6399,7 +6405,7 @@
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6419,7 +6425,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6439,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6459,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6519,7 +6525,7 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6539,7 +6545,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6559,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6579,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6639,7 +6645,7 @@
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6659,7 +6665,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6679,7 +6685,7 @@
         <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6699,7 +6705,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6759,7 +6765,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6779,7 +6785,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6799,7 +6805,7 @@
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6819,7 +6825,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6879,7 +6885,7 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6899,7 +6905,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6919,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6939,7 +6945,7 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6999,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7019,7 +7025,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7039,7 +7045,7 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7059,7 +7065,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7119,7 +7125,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7139,7 +7145,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7159,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7179,7 +7185,7 @@
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7239,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7259,7 +7265,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7279,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7299,7 +7305,7 @@
         <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7359,7 +7365,7 @@
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7379,7 +7385,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7399,7 +7405,7 @@
         <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7419,7 +7425,7 @@
         <v>6</v>
       </c>
       <c r="F174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7479,7 +7485,7 @@
         <v>8</v>
       </c>
       <c r="F177" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7499,7 +7505,7 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7519,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="F179" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7539,7 +7545,7 @@
         <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7599,7 +7605,7 @@
         <v>8</v>
       </c>
       <c r="F183" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7619,7 +7625,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7639,7 +7645,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7659,7 +7665,7 @@
         <v>6</v>
       </c>
       <c r="F186" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7719,7 +7725,7 @@
         <v>8</v>
       </c>
       <c r="F189" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7739,7 +7745,7 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7759,7 +7765,7 @@
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7779,7 +7785,7 @@
         <v>6</v>
       </c>
       <c r="F192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7839,7 +7845,7 @@
         <v>8</v>
       </c>
       <c r="F195" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7859,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7879,7 +7885,7 @@
         <v>5</v>
       </c>
       <c r="F197" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7899,7 +7905,7 @@
         <v>6</v>
       </c>
       <c r="F198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7959,7 +7965,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7979,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7999,7 +8005,7 @@
         <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8019,7 +8025,7 @@
         <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8079,7 +8085,7 @@
         <v>8</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8099,7 +8105,7 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8119,7 +8125,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8139,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="F210" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8798,7 +8804,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8833,22 +8839,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920369</v>
+        <v>20330051920156</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -8856,22 +8862,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920369</v>
+        <v>20330051920156</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -8879,22 +8885,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920161</v>
+        <v>20330051920158</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -8902,22 +8908,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920161</v>
+        <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -8925,22 +8931,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920163</v>
+        <v>20330051920306</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -8948,22 +8954,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920163</v>
+        <v>20330051920306</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -8971,16 +8977,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920370</v>
+        <v>20330051920178</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -8994,22 +9000,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920370</v>
+        <v>20330051920178</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -9017,16 +9023,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920372</v>
+        <v>20330051920161</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -9040,22 +9046,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920372</v>
+        <v>20330051920163</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -9063,16 +9069,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920165</v>
+        <v>20330051920372</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -9086,22 +9092,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920165</v>
+        <v>20330051920172</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -9109,22 +9115,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920167</v>
+        <v>20330051920179</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -9132,19 +9138,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920167</v>
+        <v>20330051920373</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -9155,16 +9161,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920171</v>
+        <v>20330051920254</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -9173,305 +9179,6 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920171</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920180</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920254</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920254</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920181</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920186</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3ARHM - Estadisticos 20211.xlsx
+++ b/grupos/3ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -83,6 +83,9 @@
     <t>CRUZ GONZALEZ ADRIANA ARELY</t>
   </si>
   <si>
+    <t>CRUZ LOPEZ AISHA NAOMI</t>
+  </si>
+  <si>
     <t>DEMUNER MENDOZA ARANTXA</t>
   </si>
   <si>
@@ -194,18 +197,18 @@
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
+    <t>Martínez López Miguel Ángel</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Martínez López Miguel Ángel</t>
+    <t>Mendoza Velazquez Laura Elena</t>
   </si>
   <si>
     <t>Rivera Cruz Ezequiel</t>
   </si>
   <si>
-    <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -218,295 +221,298 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ARROYO</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>NAMORADO</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANDRIA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>JERONIMO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>ANGELES NAHOMI</t>
+  </si>
+  <si>
+    <t>AISHA NAOMI</t>
+  </si>
+  <si>
+    <t>MARIA YAZMIN</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARTURO</t>
+  </si>
+  <si>
+    <t>VANNIA GISELLE</t>
+  </si>
+  <si>
+    <t>LUZ ESTRELLA</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>IDETH JOSELYN</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ESTHER ARISBETH</t>
+  </si>
+  <si>
+    <t>BERENICE</t>
+  </si>
+  <si>
+    <t>MONSERRATH YARETZY</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
     <t>ANDRADE</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ARROYO</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
     <t>BASILIO</t>
   </si>
   <si>
     <t>BUSTOS</t>
   </si>
   <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>DEMUNER</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GASCA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
     <t>LORENZO</t>
   </si>
   <si>
     <t>LOBATO</t>
   </si>
   <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>NAMORADO</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>RIVERA</t>
   </si>
   <si>
     <t>RICO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANDRIA</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>XOCUA</t>
   </si>
   <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
     <t>VALLEJO</t>
   </si>
   <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>ESTEVEZ</t>
   </si>
   <si>
     <t>ORTIZ</t>
   </si>
   <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
     <t>MENDOZA</t>
   </si>
   <si>
-    <t>CERON</t>
-  </si>
-  <si>
     <t>RUIZ</t>
   </si>
   <si>
     <t>ALONSO</t>
   </si>
   <si>
-    <t>JERONIMO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>MIXCOA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
     <t>MELO</t>
   </si>
   <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>VICTORIANO</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
     <t>PATRICIA</t>
   </si>
   <si>
-    <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
     <t>VANESA</t>
   </si>
   <si>
     <t>SARAHI</t>
   </si>
   <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>ANGELES NAHOMI</t>
-  </si>
-  <si>
     <t>ADRIANA ARELY</t>
   </si>
   <si>
     <t>ARANTXA</t>
   </si>
   <si>
-    <t>MARIA YAZMIN</t>
-  </si>
-  <si>
     <t>JAEL SAMAI</t>
   </si>
   <si>
     <t>LIZBET</t>
   </si>
   <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>ALDAIR OMAR</t>
-  </si>
-  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
     <t>DANIELA RUBI</t>
   </si>
   <si>
-    <t>CRISTIAN ARTURO</t>
-  </si>
-  <si>
-    <t>VANNIA GISELLE</t>
-  </si>
-  <si>
-    <t>LUZ ESTRELLA</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>IDETH JOSELYN</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>ESTHER ARISBETH</t>
-  </si>
-  <si>
     <t>JAROMI YAJAIRA</t>
   </si>
   <si>
     <t>EDGAR RAMSES</t>
   </si>
   <si>
-    <t>BERENICE</t>
-  </si>
-  <si>
     <t>IRIS VIANNEY</t>
   </si>
   <si>
-    <t>MONSERRATH YARETZY</t>
-  </si>
-  <si>
     <t>DIEGO</t>
   </si>
   <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
-    <t>MARIAN</t>
-  </si>
-  <si>
     <t>AYARI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1357,7 +1363,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1626,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1680,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1688,22 +1694,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1742,22 +1748,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1768,10 +1774,10 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1780,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1822,10 +1828,10 @@
         <v>9</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W14">
         <v>10</v>
@@ -1834,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1842,13 +1848,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1857,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1896,13 +1902,13 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U15">
         <v>10</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -1911,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1925,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1934,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1979,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>10</v>
@@ -1988,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1996,22 +2002,22 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2050,22 +2056,22 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2076,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -2085,10 +2091,10 @@
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2130,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="V18">
         <v>-1</v>
@@ -2139,10 +2145,10 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2150,22 +2156,22 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2204,22 +2210,22 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="W19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2227,22 +2233,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2281,22 +2287,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2307,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2361,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <v>9</v>
       </c>
       <c r="X21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2384,19 +2390,19 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>-1</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2438,19 +2444,19 @@
         <v>8</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2461,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2515,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="U23">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -2535,10 +2541,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2547,7 +2553,7 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2589,10 +2595,10 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2601,7 +2607,7 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2692,19 +2698,19 @@
         <v>-1</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D26">
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2746,19 +2752,19 @@
         <v>-1</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2766,22 +2772,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2820,22 +2826,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>-1</v>
       </c>
       <c r="W27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2843,22 +2849,22 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2897,22 +2903,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V28">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>8</v>
       </c>
       <c r="X28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2920,19 +2926,19 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -2974,19 +2980,19 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="V29">
         <v>8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y29">
         <v>9</v>
@@ -2997,19 +3003,19 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>9</v>
@@ -3051,19 +3057,19 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>9</v>
@@ -3074,16 +3080,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -3128,16 +3134,16 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X31">
         <v>9</v>
@@ -3157,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>9</v>
@@ -3211,13 +3217,13 @@
         <v>10</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y32">
         <v>9</v>
@@ -3228,22 +3234,22 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>-1</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3282,22 +3288,22 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V33">
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3308,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3362,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="W34">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y34">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3385,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3439,19 +3445,19 @@
         <v>8</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y35">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3459,23 +3465,23 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>-1</v>
-      </c>
-      <c r="E36">
-        <v>-1</v>
-      </c>
       <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
       <c r="H36">
         <v>-1</v>
       </c>
@@ -3513,22 +3519,22 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U36">
+        <v>-1</v>
+      </c>
+      <c r="V36">
+        <v>-1</v>
+      </c>
+      <c r="W36">
         <v>6</v>
       </c>
-      <c r="V36">
-        <v>-1</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
       <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
         <v>6</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3539,19 +3545,19 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3593,19 +3599,19 @@
         <v>7</v>
       </c>
       <c r="U37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W37">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y37">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3616,72 +3622,149 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>-1</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>-1</v>
+      </c>
+      <c r="S38">
+        <v>-1</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
         <v>6</v>
       </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-      <c r="I38">
-        <v>-1</v>
-      </c>
-      <c r="J38">
-        <v>-1</v>
-      </c>
-      <c r="K38">
-        <v>-1</v>
-      </c>
-      <c r="L38">
-        <v>-1</v>
-      </c>
-      <c r="M38">
-        <v>-1</v>
-      </c>
-      <c r="N38">
-        <v>-1</v>
-      </c>
-      <c r="O38">
-        <v>-1</v>
-      </c>
-      <c r="P38">
-        <v>-1</v>
-      </c>
-      <c r="Q38">
-        <v>-1</v>
-      </c>
-      <c r="R38">
-        <v>-1</v>
-      </c>
-      <c r="S38">
-        <v>-1</v>
-      </c>
-      <c r="T38">
-        <v>7</v>
-      </c>
-      <c r="U38">
-        <v>-1</v>
-      </c>
-      <c r="V38">
-        <v>-1</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>7</v>
-      </c>
-      <c r="Y38">
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>-1</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39">
+        <v>-1</v>
+      </c>
+      <c r="V39">
+        <v>-1</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
         <v>6</v>
       </c>
     </row>
@@ -3712,31 +3795,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3744,10 +3827,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -3756,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.86</v>
+        <v>41.67</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3765,10 +3848,10 @@
         <v>8.1</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>57.14</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3776,42 +3859,42 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>68.56999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>11</v>
       </c>
       <c r="J3">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -3820,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>71.43000000000001</v>
+        <v>69.44</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3829,30 +3912,30 @@
         <v>8.5</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>28.57</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>71.43000000000001</v>
+        <v>72.22</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3864,71 +3947,71 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>85.70999999999999</v>
+        <v>86.11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.89</v>
       </c>
       <c r="H6">
         <v>8.1</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="G7">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>8.1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>
@@ -3938,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,16 +4033,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3970,159 +4053,159 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920368</v>
+        <v>20330051920156</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920368</v>
+        <v>20330051920156</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920156</v>
+        <v>20330051920158</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920156</v>
+        <v>20330051920161</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -4130,656 +4213,656 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920156</v>
+        <v>20330051920162</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920156</v>
+        <v>20330051920162</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920156</v>
+        <v>20330051920164</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920156</v>
+        <v>20330051920164</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920157</v>
+        <v>20330051920164</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920157</v>
+        <v>20330051920164</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920157</v>
+        <v>20330051920372</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920157</v>
+        <v>20330051920166</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920157</v>
+        <v>20330051920166</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920157</v>
+        <v>20330051920166</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920158</v>
+        <v>20330051920168</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920158</v>
+        <v>20330051920168</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920158</v>
+        <v>20330051920168</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920158</v>
+        <v>20330051920172</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920158</v>
+        <v>20330051920173</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920158</v>
+        <v>20330051920173</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920369</v>
+        <v>20330051920173</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920369</v>
+        <v>20330051920173</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920369</v>
+        <v>20330051920174</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920369</v>
+        <v>20330051920174</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920369</v>
+        <v>20330051920174</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920369</v>
+        <v>20330051920175</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920160</v>
+        <v>20330051920175</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920160</v>
+        <v>20330051920175</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920160</v>
+        <v>20330051920175</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920160</v>
+        <v>20330051920175</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920160</v>
+        <v>20330051920306</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920160</v>
+        <v>20330051920306</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920161</v>
+        <v>20330051920177</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920161</v>
+        <v>20330051920177</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920161</v>
+        <v>20330051920177</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920161</v>
+        <v>20330051920177</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920161</v>
+        <v>20330051920177</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -4790,179 +4873,179 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920161</v>
+        <v>20330051920178</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920162</v>
+        <v>20330051920178</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920162</v>
+        <v>20330051920179</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920162</v>
+        <v>20330051920254</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920162</v>
+        <v>20330051920393</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920162</v>
+        <v>20330051920393</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920162</v>
+        <v>20330051920393</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920163</v>
+        <v>20330051920393</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920163</v>
+        <v>20330051920183</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>57</v>
@@ -4970,3202 +5053,142 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920163</v>
+        <v>20330051920183</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920163</v>
+        <v>20330051920184</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920163</v>
+        <v>20330051920184</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920163</v>
+        <v>20330051920184</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920370</v>
+        <v>20330051920388</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920370</v>
+        <v>20330051920388</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920370</v>
+        <v>20330051920388</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920370</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920370</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920370</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920372</v>
-      </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920372</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920372</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920372</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920372</v>
-      </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920165</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920165</v>
-      </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920165</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920167</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920167</v>
-      </c>
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920167</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920167</v>
-      </c>
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920166</v>
-      </c>
-      <c r="B81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920166</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920166</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920168</v>
-      </c>
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920168</v>
-      </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920168</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920168</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920168</v>
-      </c>
-      <c r="B91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920371</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920371</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920371</v>
-      </c>
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920371</v>
-      </c>
-      <c r="B95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920371</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920371</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920171</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920171</v>
-      </c>
-      <c r="B99" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920171</v>
-      </c>
-      <c r="B100" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920171</v>
-      </c>
-      <c r="B101" t="s">
-        <v>82</v>
-      </c>
-      <c r="C101" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920171</v>
-      </c>
-      <c r="B102" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920171</v>
-      </c>
-      <c r="B103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" t="s">
-        <v>144</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920172</v>
-      </c>
-      <c r="B104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" t="s">
-        <v>145</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920172</v>
-      </c>
-      <c r="B105" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D105" t="s">
-        <v>145</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920172</v>
-      </c>
-      <c r="B106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" t="s">
-        <v>72</v>
-      </c>
-      <c r="D106" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920172</v>
-      </c>
-      <c r="B107" t="s">
-        <v>83</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" t="s">
-        <v>145</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920172</v>
-      </c>
-      <c r="B108" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" t="s">
-        <v>72</v>
-      </c>
-      <c r="D108" t="s">
-        <v>145</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920172</v>
-      </c>
-      <c r="B109" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D109" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920173</v>
-      </c>
-      <c r="B110" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920173</v>
-      </c>
-      <c r="B111" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" t="s">
-        <v>146</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920173</v>
-      </c>
-      <c r="B112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920173</v>
-      </c>
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" t="s">
-        <v>146</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920173</v>
-      </c>
-      <c r="B114" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920173</v>
-      </c>
-      <c r="B115" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" t="s">
-        <v>146</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920174</v>
-      </c>
-      <c r="B116" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920174</v>
-      </c>
-      <c r="B117" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>147</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920174</v>
-      </c>
-      <c r="B118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118" t="s">
-        <v>115</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920174</v>
-      </c>
-      <c r="B119" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" t="s">
-        <v>115</v>
-      </c>
-      <c r="D119" t="s">
-        <v>147</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920174</v>
-      </c>
-      <c r="B120" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" t="s">
-        <v>115</v>
-      </c>
-      <c r="D120" t="s">
-        <v>147</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920174</v>
-      </c>
-      <c r="B121" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920175</v>
-      </c>
-      <c r="B122" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>148</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920175</v>
-      </c>
-      <c r="B123" t="s">
-        <v>86</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>148</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920175</v>
-      </c>
-      <c r="B124" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>148</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920175</v>
-      </c>
-      <c r="B125" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920175</v>
-      </c>
-      <c r="B126" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" t="s">
-        <v>148</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920175</v>
-      </c>
-      <c r="B127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127" t="s">
-        <v>116</v>
-      </c>
-      <c r="D127" t="s">
-        <v>148</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920306</v>
-      </c>
-      <c r="B128" t="s">
-        <v>87</v>
-      </c>
-      <c r="C128" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920306</v>
-      </c>
-      <c r="B129" t="s">
-        <v>87</v>
-      </c>
-      <c r="C129" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920306</v>
-      </c>
-      <c r="B130" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920306</v>
-      </c>
-      <c r="B131" t="s">
-        <v>87</v>
-      </c>
-      <c r="C131" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920306</v>
-      </c>
-      <c r="B132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C132" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920306</v>
-      </c>
-      <c r="B133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C133" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920177</v>
-      </c>
-      <c r="B134" t="s">
-        <v>88</v>
-      </c>
-      <c r="C134" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920177</v>
-      </c>
-      <c r="B135" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" t="s">
-        <v>117</v>
-      </c>
-      <c r="D135" t="s">
-        <v>150</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920177</v>
-      </c>
-      <c r="B136" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920177</v>
-      </c>
-      <c r="B137" t="s">
-        <v>88</v>
-      </c>
-      <c r="C137" t="s">
-        <v>117</v>
-      </c>
-      <c r="D137" t="s">
-        <v>150</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920177</v>
-      </c>
-      <c r="B138" t="s">
-        <v>88</v>
-      </c>
-      <c r="C138" t="s">
-        <v>117</v>
-      </c>
-      <c r="D138" t="s">
-        <v>150</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920177</v>
-      </c>
-      <c r="B139" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920178</v>
-      </c>
-      <c r="B140" t="s">
-        <v>89</v>
-      </c>
-      <c r="C140" t="s">
-        <v>118</v>
-      </c>
-      <c r="D140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920178</v>
-      </c>
-      <c r="B141" t="s">
-        <v>89</v>
-      </c>
-      <c r="C141" t="s">
-        <v>118</v>
-      </c>
-      <c r="D141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920178</v>
-      </c>
-      <c r="B142" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D142" t="s">
-        <v>151</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920178</v>
-      </c>
-      <c r="B143" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" t="s">
-        <v>118</v>
-      </c>
-      <c r="D143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920178</v>
-      </c>
-      <c r="B144" t="s">
-        <v>89</v>
-      </c>
-      <c r="C144" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920178</v>
-      </c>
-      <c r="B145" t="s">
-        <v>89</v>
-      </c>
-      <c r="C145" t="s">
-        <v>118</v>
-      </c>
-      <c r="D145" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920179</v>
-      </c>
-      <c r="B146" t="s">
-        <v>90</v>
-      </c>
-      <c r="C146" t="s">
-        <v>119</v>
-      </c>
-      <c r="D146" t="s">
-        <v>152</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920179</v>
-      </c>
-      <c r="B147" t="s">
-        <v>90</v>
-      </c>
-      <c r="C147" t="s">
-        <v>119</v>
-      </c>
-      <c r="D147" t="s">
-        <v>152</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920179</v>
-      </c>
-      <c r="B148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148" t="s">
-        <v>152</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920179</v>
-      </c>
-      <c r="B149" t="s">
-        <v>90</v>
-      </c>
-      <c r="C149" t="s">
-        <v>119</v>
-      </c>
-      <c r="D149" t="s">
-        <v>152</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920179</v>
-      </c>
-      <c r="B150" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" t="s">
-        <v>119</v>
-      </c>
-      <c r="D150" t="s">
-        <v>152</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920179</v>
-      </c>
-      <c r="B151" t="s">
-        <v>90</v>
-      </c>
-      <c r="C151" t="s">
-        <v>119</v>
-      </c>
-      <c r="D151" t="s">
-        <v>152</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920180</v>
-      </c>
-      <c r="B152" t="s">
-        <v>91</v>
-      </c>
-      <c r="C152" t="s">
-        <v>120</v>
-      </c>
-      <c r="D152" t="s">
-        <v>153</v>
-      </c>
-      <c r="E152" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920180</v>
-      </c>
-      <c r="B153" t="s">
-        <v>91</v>
-      </c>
-      <c r="C153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D153" t="s">
-        <v>153</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920180</v>
-      </c>
-      <c r="B154" t="s">
-        <v>91</v>
-      </c>
-      <c r="C154" t="s">
-        <v>120</v>
-      </c>
-      <c r="D154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920180</v>
-      </c>
-      <c r="B155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" t="s">
-        <v>120</v>
-      </c>
-      <c r="D155" t="s">
-        <v>153</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920180</v>
-      </c>
-      <c r="B156" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" t="s">
-        <v>153</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920180</v>
-      </c>
-      <c r="B157" t="s">
-        <v>91</v>
-      </c>
-      <c r="C157" t="s">
-        <v>120</v>
-      </c>
-      <c r="D157" t="s">
-        <v>153</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920373</v>
-      </c>
-      <c r="B158" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" t="s">
-        <v>69</v>
-      </c>
-      <c r="D158" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920373</v>
-      </c>
-      <c r="B159" t="s">
-        <v>92</v>
-      </c>
-      <c r="C159" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920373</v>
-      </c>
-      <c r="B160" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" t="s">
-        <v>154</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920373</v>
-      </c>
-      <c r="B161" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920373</v>
-      </c>
-      <c r="B162" t="s">
-        <v>92</v>
-      </c>
-      <c r="C162" t="s">
-        <v>69</v>
-      </c>
-      <c r="D162" t="s">
-        <v>154</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920373</v>
-      </c>
-      <c r="B163" t="s">
-        <v>92</v>
-      </c>
-      <c r="C163" t="s">
-        <v>69</v>
-      </c>
-      <c r="D163" t="s">
-        <v>154</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920254</v>
-      </c>
-      <c r="B164" t="s">
-        <v>93</v>
-      </c>
-      <c r="C164" t="s">
-        <v>121</v>
-      </c>
-      <c r="D164" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920254</v>
-      </c>
-      <c r="B165" t="s">
-        <v>93</v>
-      </c>
-      <c r="C165" t="s">
-        <v>121</v>
-      </c>
-      <c r="D165" t="s">
-        <v>155</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920254</v>
-      </c>
-      <c r="B166" t="s">
-        <v>93</v>
-      </c>
-      <c r="C166" t="s">
-        <v>121</v>
-      </c>
-      <c r="D166" t="s">
-        <v>155</v>
-      </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920254</v>
-      </c>
-      <c r="B167" t="s">
-        <v>93</v>
-      </c>
-      <c r="C167" t="s">
-        <v>121</v>
-      </c>
-      <c r="D167" t="s">
-        <v>155</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920254</v>
-      </c>
-      <c r="B168" t="s">
-        <v>93</v>
-      </c>
-      <c r="C168" t="s">
-        <v>121</v>
-      </c>
-      <c r="D168" t="s">
-        <v>155</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920254</v>
-      </c>
-      <c r="B169" t="s">
-        <v>93</v>
-      </c>
-      <c r="C169" t="s">
-        <v>121</v>
-      </c>
-      <c r="D169" t="s">
-        <v>155</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920181</v>
-      </c>
-      <c r="B170" t="s">
-        <v>93</v>
-      </c>
-      <c r="C170" t="s">
-        <v>114</v>
-      </c>
-      <c r="D170" t="s">
-        <v>156</v>
-      </c>
-      <c r="E170" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920181</v>
-      </c>
-      <c r="B171" t="s">
-        <v>93</v>
-      </c>
-      <c r="C171" t="s">
-        <v>114</v>
-      </c>
-      <c r="D171" t="s">
-        <v>156</v>
-      </c>
-      <c r="E171" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920181</v>
-      </c>
-      <c r="B172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C172" t="s">
-        <v>114</v>
-      </c>
-      <c r="D172" t="s">
-        <v>156</v>
-      </c>
-      <c r="E172" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920181</v>
-      </c>
-      <c r="B173" t="s">
-        <v>93</v>
-      </c>
-      <c r="C173" t="s">
-        <v>114</v>
-      </c>
-      <c r="D173" t="s">
-        <v>156</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920181</v>
-      </c>
-      <c r="B174" t="s">
-        <v>93</v>
-      </c>
-      <c r="C174" t="s">
-        <v>114</v>
-      </c>
-      <c r="D174" t="s">
-        <v>156</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920181</v>
-      </c>
-      <c r="B175" t="s">
-        <v>93</v>
-      </c>
-      <c r="C175" t="s">
-        <v>114</v>
-      </c>
-      <c r="D175" t="s">
-        <v>156</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920393</v>
-      </c>
-      <c r="B176" t="s">
-        <v>94</v>
-      </c>
-      <c r="C176" t="s">
-        <v>122</v>
-      </c>
-      <c r="D176" t="s">
-        <v>157</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920393</v>
-      </c>
-      <c r="B177" t="s">
-        <v>94</v>
-      </c>
-      <c r="C177" t="s">
-        <v>122</v>
-      </c>
-      <c r="D177" t="s">
-        <v>157</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920393</v>
-      </c>
-      <c r="B178" t="s">
-        <v>94</v>
-      </c>
-      <c r="C178" t="s">
-        <v>122</v>
-      </c>
-      <c r="D178" t="s">
-        <v>157</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920393</v>
-      </c>
-      <c r="B179" t="s">
-        <v>94</v>
-      </c>
-      <c r="C179" t="s">
-        <v>122</v>
-      </c>
-      <c r="D179" t="s">
-        <v>157</v>
-      </c>
-      <c r="E179" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920393</v>
-      </c>
-      <c r="B180" t="s">
-        <v>94</v>
-      </c>
-      <c r="C180" t="s">
-        <v>122</v>
-      </c>
-      <c r="D180" t="s">
-        <v>157</v>
-      </c>
-      <c r="E180" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920393</v>
-      </c>
-      <c r="B181" t="s">
-        <v>94</v>
-      </c>
-      <c r="C181" t="s">
-        <v>122</v>
-      </c>
-      <c r="D181" t="s">
-        <v>157</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920182</v>
-      </c>
-      <c r="B182" t="s">
-        <v>95</v>
-      </c>
-      <c r="C182" t="s">
-        <v>123</v>
-      </c>
-      <c r="D182" t="s">
-        <v>158</v>
-      </c>
-      <c r="E182" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>95</v>
-      </c>
-      <c r="C183" t="s">
-        <v>123</v>
-      </c>
-      <c r="D183" t="s">
-        <v>158</v>
-      </c>
-      <c r="E183" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>95</v>
-      </c>
-      <c r="C184" t="s">
-        <v>123</v>
-      </c>
-      <c r="D184" t="s">
-        <v>158</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920182</v>
-      </c>
-      <c r="B185" t="s">
-        <v>95</v>
-      </c>
-      <c r="C185" t="s">
-        <v>123</v>
-      </c>
-      <c r="D185" t="s">
-        <v>158</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920182</v>
-      </c>
-      <c r="B186" t="s">
-        <v>95</v>
-      </c>
-      <c r="C186" t="s">
-        <v>123</v>
-      </c>
-      <c r="D186" t="s">
-        <v>158</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920182</v>
-      </c>
-      <c r="B187" t="s">
-        <v>95</v>
-      </c>
-      <c r="C187" t="s">
-        <v>123</v>
-      </c>
-      <c r="D187" t="s">
-        <v>158</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920183</v>
-      </c>
-      <c r="B188" t="s">
-        <v>96</v>
-      </c>
-      <c r="C188" t="s">
-        <v>124</v>
-      </c>
-      <c r="D188" t="s">
-        <v>159</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920183</v>
-      </c>
-      <c r="B189" t="s">
-        <v>96</v>
-      </c>
-      <c r="C189" t="s">
-        <v>124</v>
-      </c>
-      <c r="D189" t="s">
-        <v>159</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920183</v>
-      </c>
-      <c r="B190" t="s">
-        <v>96</v>
-      </c>
-      <c r="C190" t="s">
-        <v>124</v>
-      </c>
-      <c r="D190" t="s">
-        <v>159</v>
-      </c>
-      <c r="E190" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920183</v>
-      </c>
-      <c r="B191" t="s">
-        <v>96</v>
-      </c>
-      <c r="C191" t="s">
-        <v>124</v>
-      </c>
-      <c r="D191" t="s">
-        <v>159</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920183</v>
-      </c>
-      <c r="B192" t="s">
-        <v>96</v>
-      </c>
-      <c r="C192" t="s">
-        <v>124</v>
-      </c>
-      <c r="D192" t="s">
-        <v>159</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920183</v>
-      </c>
-      <c r="B193" t="s">
-        <v>96</v>
-      </c>
-      <c r="C193" t="s">
-        <v>124</v>
-      </c>
-      <c r="D193" t="s">
-        <v>159</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>20330051920184</v>
-      </c>
-      <c r="B194" t="s">
-        <v>96</v>
-      </c>
-      <c r="C194" t="s">
-        <v>125</v>
-      </c>
-      <c r="D194" t="s">
-        <v>160</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>20330051920184</v>
-      </c>
-      <c r="B195" t="s">
-        <v>96</v>
-      </c>
-      <c r="C195" t="s">
-        <v>125</v>
-      </c>
-      <c r="D195" t="s">
-        <v>160</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>20330051920184</v>
-      </c>
-      <c r="B196" t="s">
-        <v>96</v>
-      </c>
-      <c r="C196" t="s">
-        <v>125</v>
-      </c>
-      <c r="D196" t="s">
-        <v>160</v>
-      </c>
-      <c r="E196" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>20330051920184</v>
-      </c>
-      <c r="B197" t="s">
-        <v>96</v>
-      </c>
-      <c r="C197" t="s">
-        <v>125</v>
-      </c>
-      <c r="D197" t="s">
-        <v>160</v>
-      </c>
-      <c r="E197" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>20330051920184</v>
-      </c>
-      <c r="B198" t="s">
-        <v>96</v>
-      </c>
-      <c r="C198" t="s">
-        <v>125</v>
-      </c>
-      <c r="D198" t="s">
-        <v>160</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>20330051920184</v>
-      </c>
-      <c r="B199" t="s">
-        <v>96</v>
-      </c>
-      <c r="C199" t="s">
-        <v>125</v>
-      </c>
-      <c r="D199" t="s">
-        <v>160</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>20330051920186</v>
-      </c>
-      <c r="B200" t="s">
-        <v>97</v>
-      </c>
-      <c r="C200" t="s">
-        <v>126</v>
-      </c>
-      <c r="D200" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>20330051920186</v>
-      </c>
-      <c r="B201" t="s">
-        <v>97</v>
-      </c>
-      <c r="C201" t="s">
-        <v>126</v>
-      </c>
-      <c r="D201" t="s">
-        <v>161</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>20330051920186</v>
-      </c>
-      <c r="B202" t="s">
-        <v>97</v>
-      </c>
-      <c r="C202" t="s">
-        <v>126</v>
-      </c>
-      <c r="D202" t="s">
-        <v>161</v>
-      </c>
-      <c r="E202" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>20330051920186</v>
-      </c>
-      <c r="B203" t="s">
-        <v>97</v>
-      </c>
-      <c r="C203" t="s">
-        <v>126</v>
-      </c>
-      <c r="D203" t="s">
-        <v>161</v>
-      </c>
-      <c r="E203" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>20330051920186</v>
-      </c>
-      <c r="B204" t="s">
-        <v>97</v>
-      </c>
-      <c r="C204" t="s">
-        <v>126</v>
-      </c>
-      <c r="D204" t="s">
-        <v>161</v>
-      </c>
-      <c r="E204" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>20330051920186</v>
-      </c>
-      <c r="B205" t="s">
-        <v>97</v>
-      </c>
-      <c r="C205" t="s">
-        <v>126</v>
-      </c>
-      <c r="D205" t="s">
-        <v>161</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>20330051920388</v>
-      </c>
-      <c r="B206" t="s">
-        <v>98</v>
-      </c>
-      <c r="C206" t="s">
-        <v>127</v>
-      </c>
-      <c r="D206" t="s">
-        <v>162</v>
-      </c>
-      <c r="E206" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>20330051920388</v>
-      </c>
-      <c r="B207" t="s">
-        <v>98</v>
-      </c>
-      <c r="C207" t="s">
-        <v>127</v>
-      </c>
-      <c r="D207" t="s">
-        <v>162</v>
-      </c>
-      <c r="E207" t="s">
-        <v>8</v>
-      </c>
-      <c r="F207" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>20330051920388</v>
-      </c>
-      <c r="B208" t="s">
-        <v>98</v>
-      </c>
-      <c r="C208" t="s">
-        <v>127</v>
-      </c>
-      <c r="D208" t="s">
-        <v>162</v>
-      </c>
-      <c r="E208" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>20330051920388</v>
-      </c>
-      <c r="B209" t="s">
-        <v>98</v>
-      </c>
-      <c r="C209" t="s">
-        <v>127</v>
-      </c>
-      <c r="D209" t="s">
-        <v>162</v>
-      </c>
-      <c r="E209" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>20330051920388</v>
-      </c>
-      <c r="B210" t="s">
-        <v>98</v>
-      </c>
-      <c r="C210" t="s">
-        <v>127</v>
-      </c>
-      <c r="D210" t="s">
-        <v>162</v>
-      </c>
-      <c r="E210" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>20330051920388</v>
-      </c>
-      <c r="B211" t="s">
-        <v>98</v>
-      </c>
-      <c r="C211" t="s">
-        <v>127</v>
-      </c>
-      <c r="D211" t="s">
-        <v>162</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -8175,7 +5198,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8187,53 +5210,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920368</v>
+        <v>20330051920175</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920156</v>
+        <v>20330051920177</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8244,557 +5267,574 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920158</v>
+        <v>20330051920164</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920369</v>
+        <v>20330051920173</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920160</v>
+        <v>20330051920393</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920161</v>
+        <v>20330051920166</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920162</v>
+        <v>20330051920168</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920163</v>
+        <v>20330051920174</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920370</v>
+        <v>20330051920184</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920372</v>
+        <v>20330051920388</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920165</v>
+        <v>20330051920156</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920167</v>
+        <v>20330051920162</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920166</v>
+        <v>20330051920306</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920168</v>
+        <v>20330051920178</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920371</v>
+        <v>20330051920183</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920171</v>
+        <v>20330051920158</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920172</v>
+        <v>20330051920161</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920173</v>
+        <v>20330051920372</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920174</v>
+        <v>20330051920172</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920175</v>
+        <v>20330051920179</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920306</v>
+        <v>20330051920254</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920177</v>
+        <v>20330051920368</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920178</v>
+        <v>20330051920369</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920179</v>
+        <v>20330051920160</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920180</v>
+        <v>20330051920163</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920373</v>
+        <v>20330051920370</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920254</v>
+        <v>20330051920165</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920181</v>
+        <v>20330051920167</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920393</v>
+        <v>20330051920371</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920182</v>
+        <v>20330051920171</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920183</v>
+        <v>20330051920180</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920184</v>
+        <v>20330051920373</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920186</v>
+        <v>20330051920181</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920388</v>
+        <v>20330051920182</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>20330051920186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8804,7 +5844,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8816,22 +5856,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -8845,10 +5885,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -8868,16 +5908,16 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -8885,22 +5925,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920158</v>
+        <v>20330051920306</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -8908,22 +5948,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920158</v>
+        <v>20330051920306</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -8931,22 +5971,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -8954,22 +5994,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -8977,22 +6017,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920178</v>
+        <v>20330051920158</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -9000,22 +6040,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920178</v>
+        <v>20330051920161</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -9023,22 +6063,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920161</v>
+        <v>20330051920372</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -9046,22 +6086,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920163</v>
+        <v>20330051920172</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -9069,22 +6109,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920372</v>
+        <v>20330051920179</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -9092,93 +6132,24 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920172</v>
+        <v>20330051920254</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920179</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920373</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920254</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3ARHM - Estadisticos 20211.xlsx
+++ b/grupos/3ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -239,253 +239,253 @@
     <t>CRUZ</t>
   </si>
   <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>NAMORADO</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANDRIA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>JERONIMO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>NAMORADO</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANDRIA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>ANGELES NAHOMI</t>
+  </si>
+  <si>
+    <t>AISHA NAOMI</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARTURO</t>
+  </si>
+  <si>
+    <t>VANNIA GISELLE</t>
+  </si>
+  <si>
+    <t>LUZ ESTRELLA</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>IDETH JOSELYN</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ESTHER ARISBETH</t>
+  </si>
+  <si>
+    <t>BERENICE</t>
+  </si>
+  <si>
+    <t>MONSERRATH YARETZY</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>JERONIMO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>VICTORIANO</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>ANGELES NAHOMI</t>
-  </si>
-  <si>
-    <t>AISHA NAOMI</t>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>MELO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>VANESA</t>
+  </si>
+  <si>
+    <t>SARAHI</t>
+  </si>
+  <si>
+    <t>ADRIANA ARELY</t>
+  </si>
+  <si>
+    <t>ARANTXA</t>
   </si>
   <si>
     <t>MARIA YAZMIN</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>ALDAIR OMAR</t>
-  </si>
-  <si>
-    <t>CRISTIAN ARTURO</t>
-  </si>
-  <si>
-    <t>VANNIA GISELLE</t>
-  </si>
-  <si>
-    <t>LUZ ESTRELLA</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>IDETH JOSELYN</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>ESTHER ARISBETH</t>
-  </si>
-  <si>
-    <t>BERENICE</t>
-  </si>
-  <si>
-    <t>MONSERRATH YARETZY</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
-    <t>MARIAN</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>VANESA</t>
-  </si>
-  <si>
-    <t>SARAHI</t>
-  </si>
-  <si>
-    <t>ADRIANA ARELY</t>
-  </si>
-  <si>
-    <t>ARANTXA</t>
   </si>
   <si>
     <t>JAEL SAMAI</t>
@@ -1084,7 +1084,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -1138,7 +1138,7 @@
         <v>-1</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>7</v>
@@ -1546,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>9</v>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -2778,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W27">
         <v>7</v>
@@ -3833,25 +3833,25 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4021,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4059,36 +4059,36 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920156</v>
+        <v>20330051920157</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4099,16 +4099,16 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4119,16 +4119,16 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4139,24 +4139,24 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920157</v>
+        <v>20330051920158</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -4165,18 +4165,18 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920158</v>
+        <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920161</v>
+        <v>20330051920162</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -4205,18 +4205,18 @@
         <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920162</v>
+        <v>20330051920164</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920162</v>
+        <v>20330051920164</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
@@ -4245,10 +4245,10 @@
         <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4259,16 +4259,16 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4279,24 +4279,24 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920164</v>
+        <v>20330051920166</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>92</v>
@@ -4305,18 +4305,18 @@
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920164</v>
+        <v>20330051920166</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>92</v>
@@ -4325,44 +4325,44 @@
         <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920372</v>
+        <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4373,16 +4373,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -4393,36 +4393,36 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920168</v>
+        <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -4433,62 +4433,62 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920168</v>
+        <v>20330051920173</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920168</v>
+        <v>20330051920173</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920172</v>
+        <v>20330051920173</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4496,93 +4496,93 @@
         <v>20330051920173</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B28" t="s">
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -4593,16 +4593,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -4636,19 +4636,19 @@
         <v>20330051920175</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4656,47 +4656,47 @@
         <v>20330051920175</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920175</v>
+        <v>20330051920306</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920175</v>
+        <v>20330051920177</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>97</v>
@@ -4705,18 +4705,18 @@
         <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920175</v>
+        <v>20330051920177</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>97</v>
@@ -4725,44 +4725,44 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920306</v>
+        <v>20330051920177</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920306</v>
+        <v>20330051920177</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -4776,24 +4776,24 @@
         <v>20330051920177</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920177</v>
+        <v>20330051920178</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -4802,18 +4802,18 @@
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920177</v>
+        <v>20330051920178</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -4822,7 +4822,7 @@
         <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -4833,56 +4833,56 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920177</v>
+        <v>20330051920179</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920177</v>
+        <v>20330051920254</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920178</v>
+        <v>20330051920393</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -4893,47 +4893,47 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920178</v>
+        <v>20330051920393</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920179</v>
+        <v>20330051920393</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920254</v>
+        <v>20330051920393</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
@@ -4942,18 +4942,18 @@
         <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920393</v>
+        <v>20330051920183</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
@@ -4962,7 +4962,7 @@
         <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920393</v>
+        <v>20330051920183</v>
       </c>
       <c r="B48" t="s">
         <v>85</v>
@@ -4982,98 +4982,98 @@
         <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920393</v>
+        <v>20330051920184</v>
       </c>
       <c r="B49" t="s">
         <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920393</v>
+        <v>20330051920184</v>
       </c>
       <c r="B50" t="s">
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
         <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920183</v>
+        <v>20330051920184</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920183</v>
+        <v>20330051920388</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920184</v>
+        <v>20330051920388</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
@@ -5082,18 +5082,18 @@
         <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920184</v>
+        <v>20330051920388</v>
       </c>
       <c r="B54" t="s">
         <v>86</v>
@@ -5102,92 +5102,12 @@
         <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920184</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920388</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920388</v>
-      </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920388</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5230,13 +5150,13 @@
         <v>20330051920175</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5247,13 +5167,13 @@
         <v>20330051920177</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5267,10 +5187,10 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5284,10 +5204,10 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5298,13 +5218,13 @@
         <v>20330051920173</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5315,13 +5235,13 @@
         <v>20330051920393</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5332,13 +5252,13 @@
         <v>20330051920166</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5349,13 +5269,13 @@
         <v>20330051920168</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5366,13 +5286,13 @@
         <v>20330051920174</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5383,13 +5303,13 @@
         <v>20330051920184</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5400,13 +5320,13 @@
         <v>20330051920388</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5414,16 +5334,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920156</v>
+        <v>20330051920178</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5431,16 +5351,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920162</v>
+        <v>20330051920183</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5448,67 +5368,67 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920306</v>
+        <v>20330051920156</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920178</v>
+        <v>20330051920158</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920183</v>
+        <v>20330051920161</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920158</v>
+        <v>20330051920162</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5516,16 +5436,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920161</v>
+        <v>20330051920172</v>
       </c>
       <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5533,16 +5453,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920372</v>
+        <v>20330051920306</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5550,16 +5470,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920172</v>
+        <v>20330051920179</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5567,7 +5487,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920179</v>
+        <v>20330051920254</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -5576,7 +5496,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5584,30 +5504,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920254</v>
+        <v>20330051920368</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920368</v>
+        <v>20330051920369</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -5618,13 +5538,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920369</v>
+        <v>20330051920160</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>152</v>
@@ -5635,13 +5555,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920160</v>
+        <v>20330051920163</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
         <v>153</v>
@@ -5652,13 +5572,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920163</v>
+        <v>20330051920370</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>154</v>
@@ -5669,13 +5589,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920370</v>
+        <v>20330051920372</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
         <v>155</v>
@@ -5689,10 +5609,10 @@
         <v>20330051920165</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -5706,10 +5626,10 @@
         <v>20330051920167</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
         <v>157</v>
@@ -5723,10 +5643,10 @@
         <v>20330051920371</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -5740,10 +5660,10 @@
         <v>20330051920171</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>159</v>
@@ -5757,10 +5677,10 @@
         <v>20330051920180</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>160</v>
@@ -5774,7 +5694,7 @@
         <v>20330051920373</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -5791,10 +5711,10 @@
         <v>20330051920181</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>162</v>
@@ -5808,10 +5728,10 @@
         <v>20330051920182</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
         <v>163</v>
@@ -5825,10 +5745,10 @@
         <v>20330051920186</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>164</v>
@@ -5844,7 +5764,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5879,22 +5799,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920156</v>
+        <v>20330051920162</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5902,45 +5822,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920156</v>
+        <v>20330051920162</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5948,22 +5868,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5971,22 +5891,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920178</v>
+        <v>20330051920156</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5994,22 +5914,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920178</v>
+        <v>20330051920158</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6017,10 +5937,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920158</v>
+        <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -6040,16 +5960,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920161</v>
+        <v>20330051920172</v>
       </c>
       <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -6063,22 +5983,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920372</v>
+        <v>20330051920306</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -6086,22 +6006,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920172</v>
+        <v>20330051920179</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6109,7 +6029,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920179</v>
+        <v>20330051920254</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -6118,38 +6038,15 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920254</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3ARHM - Estadisticos 20211.xlsx
+++ b/grupos/3ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="165">
   <si>
     <t>Materia</t>
   </si>
@@ -1170,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1709,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1763,7 +1763,7 @@
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2171,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2864,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3557,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3611,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3929,25 +3929,25 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>72.22</v>
+        <v>86.11</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>27.78</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4021,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4125,44 +4125,44 @@
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920157</v>
+        <v>20330051920158</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920158</v>
+        <v>20330051920161</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -4173,42 +4173,42 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920161</v>
+        <v>20330051920162</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920162</v>
+        <v>20330051920164</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4225,10 +4225,10 @@
         <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4245,50 +4245,50 @@
         <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920164</v>
+        <v>20330051920166</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920164</v>
+        <v>20330051920166</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4305,64 +4305,64 @@
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920168</v>
+        <v>20330051920172</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4373,62 +4373,62 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920168</v>
+        <v>20330051920173</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920168</v>
+        <v>20330051920173</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920172</v>
+        <v>20330051920173</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4445,84 +4445,84 @@
         <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920173</v>
+        <v>20330051920174</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -4533,16 +4533,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920174</v>
+        <v>20330051920175</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -4585,10 +4585,10 @@
         <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4605,90 +4605,90 @@
         <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920175</v>
+        <v>20330051920306</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920175</v>
+        <v>20330051920177</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920175</v>
+        <v>20330051920177</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920306</v>
+        <v>20330051920177</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4705,10 +4705,10 @@
         <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4725,84 +4725,84 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920177</v>
+        <v>20330051920178</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920177</v>
+        <v>20330051920179</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920177</v>
+        <v>20330051920254</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920178</v>
+        <v>20330051920393</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -4813,76 +4813,76 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920178</v>
+        <v>20330051920393</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920179</v>
+        <v>20330051920393</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920254</v>
+        <v>20330051920393</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920393</v>
+        <v>20330051920183</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -4893,76 +4893,76 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920393</v>
+        <v>20330051920183</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920393</v>
+        <v>20330051920184</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920393</v>
+        <v>20330051920184</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920183</v>
+        <v>20330051920388</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -4973,141 +4973,41 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920183</v>
+        <v>20330051920388</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920184</v>
+        <v>20330051920388</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920184</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920184</v>
-      </c>
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920388</v>
-      </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920388</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920388</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5181,16 +5081,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920157</v>
+        <v>20330051920173</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5198,16 +5098,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920164</v>
+        <v>20330051920393</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5215,36 +5115,36 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920173</v>
+        <v>20330051920157</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920393</v>
+        <v>20330051920164</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5266,16 +5166,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920168</v>
+        <v>20330051920174</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5283,16 +5183,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920174</v>
+        <v>20330051920388</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5300,50 +5200,50 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920184</v>
+        <v>20330051920168</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920388</v>
+        <v>20330051920183</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920178</v>
+        <v>20330051920184</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5351,33 +5251,33 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920183</v>
+        <v>20330051920156</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920156</v>
+        <v>20330051920158</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5385,16 +5285,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920158</v>
+        <v>20330051920161</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5402,16 +5302,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920161</v>
+        <v>20330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5419,16 +5319,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920162</v>
+        <v>20330051920172</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5436,16 +5336,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920172</v>
+        <v>20330051920306</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5453,16 +5353,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5764,7 +5664,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5845,16 +5745,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920178</v>
+        <v>20330051920168</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -5868,22 +5768,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920178</v>
+        <v>20330051920168</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5891,22 +5791,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920156</v>
+        <v>20330051920184</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5914,22 +5814,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920158</v>
+        <v>20330051920184</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5937,22 +5837,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920161</v>
+        <v>20330051920156</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -5960,16 +5860,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920172</v>
+        <v>20330051920158</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5983,22 +5883,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920306</v>
+        <v>20330051920161</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -6006,22 +5906,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920179</v>
+        <v>20330051920172</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6029,24 +5929,93 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>20330051920306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>20330051920254</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>-1</v>
       </c>
     </row>
